--- a/pages/equivalences.xlsx
+++ b/pages/equivalences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macstudiomgar/Library/CloudStorage/Dropbox/DEV/solverbooks/__iframes/dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macstudiomgar/Library/CloudStorage/Dropbox/DEV/#Python/python tutorial/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2176E3-03AA-2144-B0FD-49C118B8F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1310193F-5448-2249-83E8-66D2799644E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="3000" windowWidth="39640" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="228">
   <si>
     <t>Strings</t>
   </si>
@@ -703,13 +703,6 @@
 Multi-line comment 2
 Multi-line comment 3
 */</t>
-  </si>
-  <si>
-    <t>'''
-Multi-line comment 1
-Multi-line comment 2
-Multi-line comment 3
-'''</t>
   </si>
   <si>
     <t>if (condition) {
@@ -779,16 +772,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1086,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1577,8 +1567,8 @@
       <c r="D24" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>226</v>
+      <c r="E24" t="s">
+        <v>206</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>225</v>
@@ -1595,10 +1585,10 @@
         <v>101</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="F25" t="s">
         <v>104</v>
